--- a/model.xlsx
+++ b/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR Analytics (Job Change of Data Scientists)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39395AD-ACD9-4ADB-A4D4-81FB77E00A7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1BDCD-AA61-4C8A-A3C9-E68A093AB4EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="1500" windowWidth="27825" windowHeight="11835" xr2:uid="{8995557B-BEC7-48A1-B614-D3E05A7DDC73}"/>
+    <workbookView xWindow="7365" yWindow="1080" windowWidth="27825" windowHeight="11835" xr2:uid="{8995557B-BEC7-48A1-B614-D3E05A7DDC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,79 +495,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
-        <v>0.80086599999999997</v>
+        <v>0.80019399999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>0.794265</v>
+        <v>0.79816399999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.80019399999999996</v>
+        <v>0.79340900000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>0.79816399999999998</v>
+        <v>0.79440599999999995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>0.79381100000000004</v>
+        <v>0.80086599999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>0.78836399999999995</v>
+        <v>0.794265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.79340900000000003</v>
+        <v>0.78957299999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>0.79440599999999995</v>
+        <v>0.79224499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>0.78957299999999997</v>
+        <v>0.79381100000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>0.79224499999999998</v>
+        <v>0.78836399999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>0.77942400000000001</v>
+        <v>0.77825500000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>0.78404700000000005</v>
+        <v>0.78490099999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>0.77825500000000003</v>
+        <v>0.77942400000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.78490099999999996</v>
+        <v>0.78404700000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,134 +605,134 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>0.74584300000000003</v>
+        <v>0.73700500000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>0.74479200000000001</v>
+        <v>0.75710900000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.73714100000000005</v>
+        <v>0.72019200000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>0.74330499999999999</v>
+        <v>0.74755000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>0.73700500000000002</v>
+        <v>0.72403499999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>0.75710900000000003</v>
+        <v>0.74700800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.73518700000000003</v>
+        <v>0.71992999999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>0.74161100000000002</v>
+        <v>0.74691399999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>0.72403499999999998</v>
+        <v>0.72007699999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>0.74700800000000001</v>
+        <v>0.74667600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>0.72378200000000004</v>
+        <v>0.74584300000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>0.71093499999999998</v>
+        <v>0.74479200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.72303799999999996</v>
+        <v>0.73714100000000005</v>
       </c>
       <c r="C18" s="1">
-        <v>0.71541900000000003</v>
+        <v>0.74330499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>0.72236900000000004</v>
+        <v>0.73518700000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>0.72095200000000004</v>
+        <v>0.74161100000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>0.72019200000000005</v>
+        <v>0.70533299999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>0.74755000000000005</v>
+        <v>0.72268900000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.72007699999999997</v>
+        <v>0.72236900000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>0.74667600000000001</v>
+        <v>0.72095200000000004</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
-        <v>0.71992999999999996</v>
+        <v>0.72303799999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.74691399999999997</v>
+        <v>0.71541900000000003</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>0.70533299999999999</v>
+        <v>0.72378200000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>0.72268900000000003</v>
+        <v>0.71093499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,24 +748,24 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>0.66706900000000002</v>
+        <v>0.66164299999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>0.66194500000000001</v>
+        <v>0.66625800000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.66164299999999998</v>
+        <v>0.66706900000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>0.66625800000000002</v>
+        <v>0.66194500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
-    <sortCondition descending="1" ref="B2:B27"/>
+    <sortCondition descending="1" ref="C2:C27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
